--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itgam.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H2">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N2">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O2">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P2">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q2">
-        <v>0.438653126740889</v>
+        <v>0.03786090298666667</v>
       </c>
       <c r="R2">
-        <v>3.947878140668001</v>
+        <v>0.34074812688</v>
       </c>
       <c r="S2">
-        <v>0.002442941768947915</v>
+        <v>0.0002063150790081128</v>
       </c>
       <c r="T2">
-        <v>0.002442941768947914</v>
+        <v>0.0002063150790081128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H3">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N3">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O3">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P3">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q3">
-        <v>34.43515160792133</v>
+        <v>53.368544546686</v>
       </c>
       <c r="R3">
-        <v>309.916364471292</v>
+        <v>480.316900920174</v>
       </c>
       <c r="S3">
-        <v>0.1917758362012913</v>
+        <v>0.2908207310474111</v>
       </c>
       <c r="T3">
-        <v>0.1917758362012912</v>
+        <v>0.2908207310474111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I4">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J4">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N4">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O4">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P4">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q4">
-        <v>1.288475213119112</v>
+        <v>0.06001607335111112</v>
       </c>
       <c r="R4">
-        <v>11.596276918072</v>
+        <v>0.5401446601600001</v>
       </c>
       <c r="S4">
-        <v>0.007175760810755745</v>
+        <v>0.0003270450501286719</v>
       </c>
       <c r="T4">
-        <v>0.007175760810755743</v>
+        <v>0.0003270450501286718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I5">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J5">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N5">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O5">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P5">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q5">
-        <v>101.1478924964187</v>
+        <v>84.59836484311867</v>
       </c>
       <c r="R5">
-        <v>910.3310324677682</v>
+        <v>761.3852835880681</v>
       </c>
       <c r="S5">
-        <v>0.5633116381876718</v>
+        <v>0.4610011106367923</v>
       </c>
       <c r="T5">
-        <v>0.5633116381876716</v>
+        <v>0.4610011106367923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H6">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I6">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J6">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N6">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O6">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P6">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q6">
-        <v>0.04446388674933334</v>
+        <v>0.004104833475555556</v>
       </c>
       <c r="R6">
-        <v>0.400174980744</v>
+        <v>0.03694350128</v>
       </c>
       <c r="S6">
-        <v>0.0002476277485054363</v>
+        <v>2.236843223529657E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002476277485054363</v>
+        <v>2.236843223529656E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H7">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I7">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J7">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N7">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O7">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P7">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q7">
-        <v>3.490504428104</v>
+        <v>5.786153285199333</v>
       </c>
       <c r="R7">
-        <v>31.414539852936</v>
+        <v>52.075379566794</v>
       </c>
       <c r="S7">
-        <v>0.01943927568798534</v>
+        <v>0.03153043319144706</v>
       </c>
       <c r="T7">
-        <v>0.01943927568798534</v>
+        <v>0.03153043319144706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H8">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I8">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J8">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N8">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O8">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P8">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q8">
-        <v>0.4869593476782223</v>
+        <v>0.02811229480888889</v>
       </c>
       <c r="R8">
-        <v>4.382634129104001</v>
+        <v>0.25301065328</v>
       </c>
       <c r="S8">
-        <v>0.002711968199249746</v>
+        <v>0.000153192075916357</v>
       </c>
       <c r="T8">
-        <v>0.002711968199249745</v>
+        <v>0.000153192075916357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H9">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I9">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J9">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N9">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O9">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P9">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q9">
-        <v>38.22728698819733</v>
+        <v>39.62695391459933</v>
       </c>
       <c r="R9">
-        <v>344.045582893776</v>
+        <v>356.642585231394</v>
       </c>
       <c r="S9">
-        <v>0.2128949513955929</v>
+        <v>0.2159388044870612</v>
       </c>
       <c r="T9">
-        <v>0.2128949513955928</v>
+        <v>0.2159388044870612</v>
       </c>
     </row>
   </sheetData>
